--- a/data/A245 Data.xlsx
+++ b/data/A245 Data.xlsx
@@ -1,34 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrunmoy Jena\Documents\A245Lab\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6B8DE9-D1C7-4E1D-ADA5-CCEF5F8B1461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Laser power vs Current" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Calibration of the variable att" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="SH Power vs theta" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="SH Power vs Polaization Fundame" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="SH Power vs Temperature" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Grating" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Interferometer" sheetId="7" r:id="rId10"/>
+    <sheet name="Laser power vs Current" sheetId="1" r:id="rId1"/>
+    <sheet name="Calibration of the variable att" sheetId="2" r:id="rId2"/>
+    <sheet name="SH Power vs theta" sheetId="3" r:id="rId3"/>
+    <sheet name="SH Power vs Polaization Fundame" sheetId="4" r:id="rId4"/>
+    <sheet name="SH Power vs Temperature" sheetId="5" r:id="rId5"/>
+    <sheet name="Grating" sheetId="6" r:id="rId6"/>
+    <sheet name="Interferometer" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>I (mA)</t>
   </si>
   <si>
     <t>delta I</t>
-  </si>
-  <si>
-    <t>P - no att. [muW]</t>
-  </si>
-  <si>
-    <t>P - att. [muW]</t>
   </si>
   <si>
     <t>REF</t>
@@ -108,19 +121,32 @@
   <si>
     <t>Distance</t>
   </si>
+  <si>
+    <t>delta Patt</t>
+  </si>
+  <si>
+    <t>delta Pnoatt</t>
+  </si>
+  <si>
+    <t>Patt [muW]</t>
+  </si>
+  <si>
+    <t>Pnoatt [muW]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -131,33 +157,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -174,7 +215,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-IN" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -187,6 +228,7 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -228,18 +270,316 @@
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Laser power vs Current'!$A$12:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Laser power vs Current'!$D$12:$D$58</c:f>
-              <c:numCache/>
+              <c:f>'Laser power vs Current'!$E$12:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>84.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>89.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>141</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB03-4547-B36A-3EBC22BC4CD5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -294,7 +634,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-IN" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -326,9 +666,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="186665132"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="186665132"/>
@@ -372,7 +715,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-IN" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -404,9 +747,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1476024886"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -424,16 +770,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -463,6 +821,7 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -493,14 +852,465 @@
           <c:xVal>
             <c:numRef>
               <c:f>'Calibration of the variable att'!$A$2:$A$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>122.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>132.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>147.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>152.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>157.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>162.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>167.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>177.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Calibration of the variable att'!$B$2:$B$74</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>56.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>84.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>47.4</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D260-461D-9BCA-8239DF45A456}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -587,9 +1397,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="192432016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="192432016"/>
@@ -665,9 +1478,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1995768725"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -685,16 +1501,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -724,6 +1552,7 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -754,14 +1583,465 @@
           <c:xVal>
             <c:numRef>
               <c:f>'SH Power vs theta'!$A$2:$A$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>122.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>132.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>147.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>152.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>157.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>162.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>167.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>177.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'SH Power vs theta'!$B$2:$B$74</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C947-4612-AD12-350BA13977FE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -848,9 +2128,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1218144800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1218144800"/>
@@ -926,9 +2209,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1266703039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -946,16 +2232,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -985,6 +2283,7 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1015,14 +2314,465 @@
           <c:xVal>
             <c:numRef>
               <c:f>'SH Power vs theta'!$C$2:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>56.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>84.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>47.4</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'SH Power vs theta'!$B$2:$B$74</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8119-496B-8CEB-CA97E9DDA57F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1109,9 +2859,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460160515"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="460160515"/>
@@ -1187,9 +2940,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1150741704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1207,16 +2963,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1246,6 +3014,7 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1257,6 +3026,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'SH Power vs Polaization Fundame'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P [muW]</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1281,14 +3056,465 @@
           <c:xVal>
             <c:numRef>
               <c:f>'SH Power vs Polaization Fundame'!$A$2:$A$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>122.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>132.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>147.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>152.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>157.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>162.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>167.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>177.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'SH Power vs Polaization Fundame'!$B$2:$B$74</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>52.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88AC-4F13-8652-EF062C1F6A4B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1375,9 +3601,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1042320226"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1042320226"/>
@@ -1453,9 +3682,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="646463934"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1473,16 +3705,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1512,6 +3756,7 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1523,6 +3768,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'SH Power vs Temperature'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Power (muW)</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1547,14 +3798,249 @@
           <c:xVal>
             <c:numRef>
               <c:f>'SH Power vs Temperature'!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26.9</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'SH Power vs Temperature'!$B$2:$B$38</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CC8-47CC-9A28-AB59CAB8C16B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1641,9 +4127,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1452444376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1452444376"/>
@@ -1719,9 +4208,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2046380232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1739,27 +4231,41 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6858000" cy="4248150"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1768,7 +4274,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1778,7 +4284,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1787,9 +4293,15 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1798,7 +4310,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1808,7 +4320,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1817,9 +4329,15 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1828,7 +4346,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1842,9 +4360,15 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
+        <xdr:cNvPr id="4" name="Chart 4" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1853,7 +4377,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1863,7 +4387,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1872,9 +4396,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
+        <xdr:cNvPr id="5" name="Chart 5" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1883,7 +4413,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1893,7 +4423,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1902,9 +4432,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 6" title="Chart"/>
+        <xdr:cNvPr id="6" name="Chart 6" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1913,7 +4449,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1922,16 +4458,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2121,24 +4649,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="13.5"/>
-    <col customWidth="1" min="4" max="4" width="17.63"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2146,608 +4680,983 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
       </c>
       <c r="C2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>5.0</v>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
       </c>
       <c r="C3" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="D3" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>10.0</v>
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
       </c>
       <c r="C4" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>15.0</v>
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
       </c>
       <c r="C5" s="1">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>20.0</v>
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
       </c>
       <c r="C6" s="1">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="D6" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>25.0</v>
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
       </c>
       <c r="C7" s="1">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="D7" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>30.0</v>
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
       </c>
       <c r="C8" s="1">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="D8" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>35.0</v>
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
       </c>
       <c r="C9" s="1">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="D9" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>40.0</v>
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
       </c>
       <c r="C10" s="1">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45.0</v>
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
       </c>
       <c r="C11" s="1">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="D11" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>50.0</v>
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
       </c>
       <c r="C12" s="1">
         <v>28.2</v>
       </c>
       <c r="D12" s="1">
-        <v>0.033</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>55.0</v>
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
       </c>
       <c r="C13" s="1">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="D13" s="1">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="F13" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>60.0</v>
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
       </c>
       <c r="C14" s="1">
-        <v>3130.0</v>
+        <v>3130</v>
       </c>
       <c r="D14" s="1">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="F14" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>65.0</v>
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
       </c>
       <c r="C15" s="1">
-        <v>5650.0</v>
+        <v>5650</v>
       </c>
       <c r="D15" s="1">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="F15" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>70.0</v>
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
       </c>
       <c r="C16" s="1">
-        <v>9120.0</v>
+        <v>9120</v>
       </c>
       <c r="D16" s="1">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1">
         <v>8.93</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="F16" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>75.0</v>
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
       </c>
       <c r="C17" s="1">
-        <v>12900.0</v>
+        <v>12900</v>
       </c>
       <c r="D17" s="1">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="F17" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>80.0</v>
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
       </c>
       <c r="C18" s="1">
-        <v>16200.0</v>
+        <v>16200</v>
       </c>
       <c r="D18" s="1">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="F18" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>85.0</v>
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
       </c>
       <c r="C19" s="1">
-        <v>19000.0</v>
+        <v>19000</v>
       </c>
       <c r="D19" s="1">
-        <v>18.1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>100</v>
+      </c>
+      <c r="E19" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>90.0</v>
-      </c>
-      <c r="D20" s="1">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="1">
         <v>21.6</v>
       </c>
-      <c r="G20" s="1">
-        <v>22800.0</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="F20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>95.0</v>
-      </c>
-      <c r="D21" s="1">
+        <v>95</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="1">
         <v>24.9</v>
       </c>
-      <c r="G21" s="1">
-        <v>26400.0</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="F21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="D22" s="1">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="1">
         <v>27.9</v>
       </c>
-      <c r="G22" s="1">
-        <v>29600.0</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="F22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>29600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>105.0</v>
-      </c>
-      <c r="D23" s="1">
+        <v>105</v>
+      </c>
+      <c r="B23">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="1">
         <v>30.7</v>
       </c>
-      <c r="G23" s="1">
-        <v>33500.0</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="F23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>110.0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>33.8</v>
-      </c>
-      <c r="G24" s="1">
-        <v>37000.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>110</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>115.0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>36.3</v>
-      </c>
-      <c r="G25" s="1">
-        <v>40100.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>115</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>40100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>120.0</v>
+        <v>120</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
         <v>40.4</v>
       </c>
-      <c r="G26" s="1">
-        <v>45100.0</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="F26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="D27" s="1">
+        <v>125</v>
+      </c>
+      <c r="B27">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="1">
         <v>43.6</v>
       </c>
-      <c r="G27" s="1">
-        <v>48100.0</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="F27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>48100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>130.0</v>
-      </c>
-      <c r="D28" s="1">
+        <v>130</v>
+      </c>
+      <c r="B28">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="1">
         <v>46.8</v>
       </c>
-      <c r="G28" s="1">
-        <v>51700.0</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="F28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>51700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>135.0</v>
-      </c>
-      <c r="D29" s="1">
+        <v>135</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="1">
         <v>49.5</v>
       </c>
-      <c r="G29" s="1">
-        <v>55500.0</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="F29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>55500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>140.0</v>
-      </c>
-      <c r="D30" s="1">
+        <v>140</v>
+      </c>
+      <c r="B30">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="1">
         <v>52.8</v>
       </c>
-      <c r="G30" s="1">
-        <v>59100.0</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="F30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>59100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>145.0</v>
-      </c>
-      <c r="D31" s="1">
+        <v>145</v>
+      </c>
+      <c r="B31">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="1">
         <v>55.9</v>
       </c>
-      <c r="G31" s="1">
-        <v>62500.0</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="F31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="D32" s="1">
+        <v>150</v>
+      </c>
+      <c r="B32">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="1">
         <v>59.8</v>
       </c>
-      <c r="G32" s="1">
-        <v>66700.0</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="F32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>66700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>155.0</v>
-      </c>
-      <c r="D33" s="1">
+        <v>155</v>
+      </c>
+      <c r="B33">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="1">
         <v>62.9</v>
       </c>
-      <c r="G33" s="1">
-        <v>71600.0</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="F33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>71600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>160.0</v>
-      </c>
-      <c r="D34" s="1">
+        <v>160</v>
+      </c>
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="1">
         <v>64.7</v>
       </c>
-      <c r="G34" s="1">
-        <v>74300.0</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="F34" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>74300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>165.0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>68.1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>78100.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>165</v>
+      </c>
+      <c r="B35">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>78100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>170.0</v>
-      </c>
-      <c r="D36" s="1">
+        <v>170</v>
+      </c>
+      <c r="B36">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="1">
         <v>70.8</v>
       </c>
-      <c r="G36" s="1">
-        <v>81300.0</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="F36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>81300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>175.0</v>
-      </c>
-      <c r="D37" s="1">
+        <v>175</v>
+      </c>
+      <c r="B37">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="1">
         <v>74.3</v>
       </c>
-      <c r="G37" s="1">
-        <v>85800.0</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="F37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>85800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>180.0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>76.4</v>
-      </c>
-      <c r="G38" s="1">
-        <v>88800.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>180</v>
+      </c>
+      <c r="B38">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>88800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>185.0</v>
-      </c>
-      <c r="D39" s="1">
+        <v>185</v>
+      </c>
+      <c r="B39">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="1">
         <v>80.3</v>
       </c>
-      <c r="G39" s="1">
-        <v>93200.0</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="F39" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>93200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>190.0</v>
-      </c>
-      <c r="D40" s="1">
+        <v>190</v>
+      </c>
+      <c r="B40">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="1">
         <v>84.2</v>
       </c>
-      <c r="G40" s="1">
-        <v>98700.0</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="F40" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>98700</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>195.0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>195</v>
+      </c>
+      <c r="B41">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>86</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="D42" s="1">
+        <v>200</v>
+      </c>
+      <c r="B42">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="1">
         <v>89.4</v>
       </c>
-    </row>
-    <row r="43">
+      <c r="F42" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>205.0</v>
-      </c>
-      <c r="D43" s="1">
+        <v>205</v>
+      </c>
+      <c r="B43">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="1">
         <v>93.1</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="F43" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>210.0</v>
-      </c>
-      <c r="D44" s="1">
+        <v>210</v>
+      </c>
+      <c r="B44">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="1">
         <v>98.6</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="F44" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>215.0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>98.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>215</v>
+      </c>
+      <c r="B45">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>98</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>220.0</v>
-      </c>
-      <c r="D46" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>220</v>
+      </c>
+      <c r="B46">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="1">
+        <v>100</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>225.0</v>
-      </c>
-      <c r="D47" s="1">
-        <v>106.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>225</v>
+      </c>
+      <c r="B47">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="1">
+        <v>106</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>230.0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>109.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>230</v>
+      </c>
+      <c r="B48">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="1">
+        <v>109</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>235.0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>109.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>235</v>
+      </c>
+      <c r="B49">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>109</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>240.0</v>
-      </c>
-      <c r="D50" s="1">
-        <v>114.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>240</v>
+      </c>
+      <c r="B50">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>114</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>245.0</v>
-      </c>
-      <c r="D51" s="1">
-        <v>117.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>245</v>
+      </c>
+      <c r="B51">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>117</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>250.0</v>
-      </c>
-      <c r="D52" s="1">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>250</v>
+      </c>
+      <c r="B52">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="1">
+        <v>120</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>255.0</v>
-      </c>
-      <c r="D53" s="1">
-        <v>121.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>255</v>
+      </c>
+      <c r="B53">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>121</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>260.0</v>
-      </c>
-      <c r="D54" s="1">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>260</v>
+      </c>
+      <c r="B54">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="1">
+        <v>125</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>265.0</v>
-      </c>
-      <c r="D55" s="1">
-        <v>132.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>265</v>
+      </c>
+      <c r="B55">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="1">
+        <v>132</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>270.0</v>
-      </c>
-      <c r="D56" s="1">
-        <v>134.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>270</v>
+      </c>
+      <c r="B56">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>134</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>275.0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>134.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>275</v>
+      </c>
+      <c r="B57">
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="1">
+        <v>134</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>280.0</v>
-      </c>
-      <c r="D58" s="1">
-        <v>141.0</v>
+        <v>280</v>
+      </c>
+      <c r="B58">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="1">
+        <v>141</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>46.6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2.5</v>
       </c>
@@ -2755,18 +5664,18 @@
         <v>58.4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>70.9</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7.5</v>
       </c>
@@ -2774,159 +5683,159 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>91.8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>12.5</v>
       </c>
       <c r="B7" s="1">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>109.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>17.5</v>
       </c>
       <c r="B9" s="1">
-        <v>117.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>22.5</v>
       </c>
       <c r="B11" s="1">
-        <v>127.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
-        <v>129.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>27.5</v>
       </c>
       <c r="B13" s="1">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
-        <v>128.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>32.5</v>
       </c>
       <c r="B15" s="1">
-        <v>124.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
-        <v>119.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>37.5</v>
       </c>
       <c r="B17" s="1">
-        <v>112.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42.5</v>
       </c>
       <c r="B19" s="1">
-        <v>95.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
         <v>84.1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>47.5</v>
       </c>
       <c r="B21" s="1">
-        <v>72.6</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1">
         <v>60.7</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>52.5</v>
       </c>
       <c r="B23" s="1">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1">
-        <v>39.3</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>57.5</v>
       </c>
@@ -2934,15 +5843,15 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1">
         <v>19.8</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>62.5</v>
       </c>
@@ -2950,31 +5859,31 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1">
         <v>6.6</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>67.5</v>
       </c>
       <c r="B29" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>72.5</v>
       </c>
@@ -2982,15 +5891,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>77.5</v>
       </c>
@@ -2998,47 +5907,47 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1">
         <v>10.8</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>82.5</v>
       </c>
       <c r="B35" s="1">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1">
         <v>27.3</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>87.5</v>
       </c>
       <c r="B37" s="1">
-        <v>36.2</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1">
         <v>47.7</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>92.5</v>
       </c>
@@ -3046,15 +5955,15 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1">
-        <v>69.4</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>97.5</v>
       </c>
@@ -3062,111 +5971,111 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B42" s="1">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>102.5</v>
       </c>
       <c r="B43" s="1">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B44" s="1">
-        <v>109.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>107.5</v>
       </c>
       <c r="B45" s="1">
-        <v>117.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B46" s="1">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>112.5</v>
       </c>
       <c r="B47" s="1">
-        <v>127.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B48" s="1">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>117.5</v>
       </c>
       <c r="B49" s="1">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B50" s="1">
-        <v>129.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>122.5</v>
       </c>
       <c r="B51" s="1">
-        <v>126.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B52" s="1">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>127.5</v>
       </c>
       <c r="B53" s="1">
-        <v>112.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B54" s="1">
-        <v>103.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>132.5</v>
       </c>
@@ -3174,15 +6083,15 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B56" s="1">
         <v>84.8</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>137.5</v>
       </c>
@@ -3190,15 +6099,15 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B58" s="1">
         <v>61.4</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>142.5</v>
       </c>
@@ -3206,15 +6115,15 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B60" s="1">
         <v>40.1</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>147.5</v>
       </c>
@@ -3222,15 +6131,15 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B62" s="1">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>152.5</v>
       </c>
@@ -3238,15 +6147,15 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B64" s="1">
         <v>7.3</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>157.5</v>
       </c>
@@ -3254,15 +6163,15 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B66" s="1">
         <v>1.2</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>162.5</v>
       </c>
@@ -3270,15 +6179,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B68" s="1">
         <v>2.6</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>167.5</v>
       </c>
@@ -3286,98 +6195,100 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B70" s="1">
         <v>11.6</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>172.5</v>
       </c>
       <c r="B71" s="1">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B72" s="1">
         <v>26.7</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>177.5</v>
       </c>
       <c r="B73" s="1">
-        <v>36.8</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B74" s="1">
         <v>47.4</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="14.75"/>
-    <col customWidth="1" min="5" max="5" width="18.75"/>
-    <col customWidth="1" min="6" max="6" width="21.13"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>46.6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2.5</v>
       </c>
@@ -3388,31 +6299,31 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>10.8</v>
       </c>
       <c r="C4" s="1">
-        <v>70.9</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7.5</v>
       </c>
       <c r="B5" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>80.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>18.3</v>
@@ -3421,7 +6332,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>12.5</v>
       </c>
@@ -3429,43 +6340,43 @@
         <v>21.8</v>
       </c>
       <c r="C7" s="1">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>26.6</v>
       </c>
       <c r="C8" s="1">
-        <v>109.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>17.5</v>
       </c>
       <c r="B9" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>117.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>33.9</v>
       </c>
       <c r="C10" s="1">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>22.5</v>
       </c>
@@ -3473,21 +6384,21 @@
         <v>35.4</v>
       </c>
       <c r="C11" s="1">
-        <v>127.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <v>36.6</v>
       </c>
       <c r="C12" s="1">
-        <v>129.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>27.5</v>
       </c>
@@ -3495,43 +6406,43 @@
         <v>36.6</v>
       </c>
       <c r="C13" s="1">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>35.6</v>
       </c>
       <c r="C14" s="1">
-        <v>128.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>32.5</v>
       </c>
       <c r="B15" s="1">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>124.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>30.2</v>
       </c>
       <c r="C16" s="1">
-        <v>119.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>37.5</v>
       </c>
@@ -3539,21 +6450,21 @@
         <v>26.8</v>
       </c>
       <c r="C17" s="1">
-        <v>112.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
         <v>22.8</v>
       </c>
       <c r="C18" s="1">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42.5</v>
       </c>
@@ -3561,12 +6472,12 @@
         <v>18.7</v>
       </c>
       <c r="C19" s="1">
-        <v>95.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
         <v>14.5</v>
@@ -3575,7 +6486,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>47.5</v>
       </c>
@@ -3583,21 +6494,21 @@
         <v>11.2</v>
       </c>
       <c r="C21" s="1">
-        <v>72.6</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1">
         <v>60.7</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>52.5</v>
       </c>
@@ -3605,21 +6516,21 @@
         <v>5.3</v>
       </c>
       <c r="C23" s="1">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1">
         <v>3.1</v>
       </c>
       <c r="C24" s="1">
-        <v>39.3</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>57.5</v>
       </c>
@@ -3630,9 +6541,9 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1">
         <v>0.9</v>
@@ -3641,7 +6552,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>62.5</v>
       </c>
@@ -3652,9 +6563,9 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1">
         <v>0.1</v>
@@ -3663,7 +6574,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>67.5</v>
       </c>
@@ -3671,12 +6582,12 @@
         <v>0.06</v>
       </c>
       <c r="C29" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1">
         <v>0.03</v>
@@ -3685,7 +6596,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>72.5</v>
       </c>
@@ -3696,18 +6607,18 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1">
         <v>0.04</v>
       </c>
       <c r="C32" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>77.5</v>
       </c>
@@ -3718,9 +6629,9 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1">
         <v>0.3</v>
@@ -3729,7 +6640,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>82.5</v>
       </c>
@@ -3737,12 +6648,12 @@
         <v>0.7</v>
       </c>
       <c r="C35" s="1">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1">
         <v>1.6</v>
@@ -3751,7 +6662,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>87.5</v>
       </c>
@@ -3759,12 +6670,12 @@
         <v>2.7</v>
       </c>
       <c r="C37" s="1">
-        <v>36.2</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1">
         <v>4.8</v>
@@ -3773,7 +6684,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>92.5</v>
       </c>
@@ -3784,18 +6695,18 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1">
         <v>10.4</v>
       </c>
       <c r="C40" s="1">
-        <v>69.4</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>97.5</v>
       </c>
@@ -3806,18 +6717,18 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B42" s="1">
         <v>17.8</v>
       </c>
       <c r="C42" s="1">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>102.5</v>
       </c>
@@ -3825,21 +6736,21 @@
         <v>21.4</v>
       </c>
       <c r="C43" s="1">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B44" s="1">
         <v>25.4</v>
       </c>
       <c r="C44" s="1">
-        <v>109.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>107.5</v>
       </c>
@@ -3847,21 +6758,21 @@
         <v>29.1</v>
       </c>
       <c r="C45" s="1">
-        <v>117.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B46" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C46" s="1">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>112.5</v>
       </c>
@@ -3869,43 +6780,43 @@
         <v>34.4</v>
       </c>
       <c r="C47" s="1">
-        <v>127.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B48" s="1">
         <v>35.5</v>
       </c>
       <c r="C48" s="1">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>117.5</v>
       </c>
       <c r="B49" s="1">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="C49" s="1">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B50" s="1">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="C50" s="1">
-        <v>129.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>122.5</v>
       </c>
@@ -3913,43 +6824,43 @@
         <v>32.6</v>
       </c>
       <c r="C51" s="1">
-        <v>126.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B52" s="1">
         <v>22.2</v>
       </c>
       <c r="C52" s="1">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>127.5</v>
       </c>
       <c r="B53" s="1">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C53" s="1">
-        <v>112.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B54" s="1">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C54" s="1">
-        <v>103.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>132.5</v>
       </c>
@@ -3960,18 +6871,18 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B56" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C56" s="1">
         <v>84.8</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>137.5</v>
       </c>
@@ -3982,9 +6893,9 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B58" s="1">
         <v>5.9</v>
@@ -3993,7 +6904,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>142.5</v>
       </c>
@@ -4004,18 +6915,18 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B60" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C60" s="1">
         <v>40.1</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>147.5</v>
       </c>
@@ -4026,18 +6937,18 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B62" s="1">
         <v>0.6</v>
       </c>
       <c r="C62" s="1">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>152.5</v>
       </c>
@@ -4048,9 +6959,9 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B64" s="1">
         <v>0.1</v>
@@ -4059,7 +6970,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>157.5</v>
       </c>
@@ -4070,9 +6981,9 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B66" s="1">
         <v>0.03</v>
@@ -4081,7 +6992,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>162.5</v>
       </c>
@@ -4092,9 +7003,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B68" s="1">
         <v>0.04</v>
@@ -4103,7 +7014,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>167.5</v>
       </c>
@@ -4114,9 +7025,9 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B70" s="1">
         <v>0.2</v>
@@ -4125,7 +7036,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>172.5</v>
       </c>
@@ -4133,21 +7044,21 @@
         <v>0.6</v>
       </c>
       <c r="C71" s="1">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B72" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C72" s="1">
         <v>26.7</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>177.5</v>
       </c>
@@ -4155,12 +7066,12 @@
         <v>2.1</v>
       </c>
       <c r="C73" s="1">
-        <v>36.8</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B74" s="1">
         <v>3.6</v>
@@ -4170,37 +7081,39 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>16.9</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2.5</v>
       </c>
@@ -4208,15 +7121,15 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7.5</v>
       </c>
@@ -4224,15 +7137,15 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>31.3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>12.5</v>
       </c>
@@ -4240,15 +7153,15 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>40.1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>17.5</v>
       </c>
@@ -4256,15 +7169,15 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>47.8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>22.5</v>
       </c>
@@ -4272,15 +7185,15 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <v>51.2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>27.5</v>
       </c>
@@ -4288,15 +7201,15 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>48.6</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>32.5</v>
       </c>
@@ -4304,31 +7217,31 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>41.3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>37.5</v>
       </c>
       <c r="B17" s="1">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
         <v>32.4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42.5</v>
       </c>
@@ -4336,15 +7249,15 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
         <v>23.5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>47.5</v>
       </c>
@@ -4352,15 +7265,15 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>52.5</v>
       </c>
@@ -4368,15 +7281,15 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>57.5</v>
       </c>
@@ -4384,15 +7297,15 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1">
         <v>11.7</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>62.5</v>
       </c>
@@ -4400,15 +7313,15 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1">
         <v>11.1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>67.5</v>
       </c>
@@ -4416,15 +7329,15 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1">
         <v>11.3</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>72.5</v>
       </c>
@@ -4432,15 +7345,15 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1">
         <v>11.4</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>77.5</v>
       </c>
@@ -4448,31 +7361,31 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1">
         <v>12.1</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>82.5</v>
       </c>
       <c r="B35" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1">
         <v>14.2</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>87.5</v>
       </c>
@@ -4480,15 +7393,15 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1">
         <v>19.3</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>92.5</v>
       </c>
@@ -4496,15 +7409,15 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1">
         <v>26.7</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>97.5</v>
       </c>
@@ -4512,31 +7425,31 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B42" s="1">
         <v>34.9</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>102.5</v>
       </c>
       <c r="B43" s="1">
-        <v>40.8</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B44" s="1">
         <v>44.7</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>107.5</v>
       </c>
@@ -4544,15 +7457,15 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B46" s="1">
         <v>51.1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>112.5</v>
       </c>
@@ -4560,15 +7473,15 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B48" s="1">
         <v>52.7</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>117.5</v>
       </c>
@@ -4576,15 +7489,15 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B50" s="1">
         <v>51.6</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>122.5</v>
       </c>
@@ -4592,47 +7505,47 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B52" s="1">
         <v>46.4</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>127.5</v>
       </c>
       <c r="B53" s="1">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B54" s="1">
-        <v>37.7</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>132.5</v>
       </c>
       <c r="B55" s="1">
-        <v>33.3</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B56" s="1">
         <v>28.8</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>137.5</v>
       </c>
@@ -4640,15 +7553,15 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B58" s="1">
         <v>20.7</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>142.5</v>
       </c>
@@ -4656,15 +7569,15 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B60" s="1">
         <v>15.2</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>147.5</v>
       </c>
@@ -4672,15 +7585,15 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B62" s="1">
         <v>12.3</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>152.5</v>
       </c>
@@ -4688,15 +7601,15 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B64" s="1">
         <v>11.4</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>157.5</v>
       </c>
@@ -4704,15 +7617,15 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B66" s="1">
         <v>11.3</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>162.5</v>
       </c>
@@ -4720,15 +7633,15 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B68" s="1">
         <v>11.3</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>167.5</v>
       </c>
@@ -4736,15 +7649,15 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B70" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>172.5</v>
       </c>
@@ -4752,57 +7665,59 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B72" s="1">
         <v>13.4</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>177.5</v>
       </c>
       <c r="B73" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B74" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.13"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>39.9</v>
       </c>
@@ -4810,7 +7725,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>39.4</v>
       </c>
@@ -4818,7 +7733,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>38.9</v>
       </c>
@@ -4826,31 +7741,31 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>38.4</v>
       </c>
       <c r="B5" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1">
         <v>11.6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="B7" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>37.6</v>
       </c>
@@ -4858,7 +7773,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>37.4</v>
       </c>
@@ -4866,31 +7781,31 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="B10" s="1">
         <v>23.5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1">
         <v>33.6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="B12" s="1">
         <v>43.2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>36.6</v>
       </c>
@@ -4898,7 +7813,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>36.4</v>
       </c>
@@ -4906,31 +7821,31 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="B15" s="1">
         <v>48.2</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="B17" s="1">
-        <v>34.8</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>35.6</v>
       </c>
@@ -4938,7 +7853,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>35.4</v>
       </c>
@@ -4946,31 +7861,31 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="B20" s="1">
         <v>16.2</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1">
         <v>13.4</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="B22" s="1">
         <v>11.9</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>34.4</v>
       </c>
@@ -4978,7 +7893,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>33.9</v>
       </c>
@@ -4986,7 +7901,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>33.4</v>
       </c>
@@ -4994,7 +7909,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>32.9</v>
       </c>
@@ -5002,7 +7917,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>32.4</v>
       </c>
@@ -5010,7 +7925,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>31.9</v>
       </c>
@@ -5018,7 +7933,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>31.4</v>
       </c>
@@ -5026,7 +7941,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30.9</v>
       </c>
@@ -5034,7 +7949,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30.4</v>
       </c>
@@ -5042,7 +7957,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29.9</v>
       </c>
@@ -5050,7 +7965,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29.4</v>
       </c>
@@ -5058,7 +7973,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>28.9</v>
       </c>
@@ -5066,7 +7981,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>28.4</v>
       </c>
@@ -5074,7 +7989,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>27.9</v>
       </c>
@@ -5082,7 +7997,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>27.4</v>
       </c>
@@ -5090,7 +8005,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>26.9</v>
       </c>
@@ -5099,188 +8014,191 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2">
         <f>96.4+76.6</f>
         <v>173</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="2">
+        <f>SUM(B5+71.8)</f>
+        <v>137.80000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="1">
-        <v>66.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2">
-        <f>sum(B5+71.8)</f>
-        <v>137.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="B7" s="2">
         <f>(B6+108.6)</f>
         <v>246.4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <f>B6</f>
-        <v>137.8</v>
+        <v>137.80000000000001</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/A245 Data.xlsx
+++ b/data/A245 Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrunmoy Jena\Documents\A245Lab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6B8DE9-D1C7-4E1D-ADA5-CCEF5F8B1461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F236512-8903-4F18-8717-9566CACAA95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Laser power vs Current" sheetId="1" r:id="rId1"/>
@@ -808,7 +808,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-IN" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1365,7 +1365,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-IN" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1446,7 +1446,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-IN" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -4287,10 +4287,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>546735</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -4661,7 +4661,7 @@
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -5621,7 +5621,9 @@
   </sheetPr>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/data/A245 Data.xlsx
+++ b/data/A245 Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrunmoy Jena\Documents\A245Lab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F236512-8903-4F18-8717-9566CACAA95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B309FDA5-ECB4-4F86-AD27-9B97F13C5209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Laser power vs Current" sheetId="1" r:id="rId1"/>
@@ -1539,7 +1539,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-IN" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -2096,7 +2096,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-IN" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2177,7 +2177,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-IN" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2270,7 +2270,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-IN" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -2827,7 +2827,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-IN" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2908,7 +2908,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-IN" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3001,7 +3001,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-IN" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -3569,7 +3569,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-IN" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3650,7 +3650,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-IN" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3743,7 +3743,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-IN" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -4095,7 +4095,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-IN" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -4176,7 +4176,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-IN" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -5621,7 +5621,7 @@
   </sheetPr>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -6250,11 +6250,14 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="21.109375" customWidth="1"/>
   </cols>
@@ -7708,7 +7711,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/A245 Data.xlsx
+++ b/data/A245 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrunmoy Jena\Documents\A245Lab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B309FDA5-ECB4-4F86-AD27-9B97F13C5209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6A1DD3-89AA-4080-A3A7-D39CC7EE2E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4390,10 +4390,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -6250,16 +6250,16 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20.88671875" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7098,7 +7098,9 @@
   </sheetPr>
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/data/A245 Data.xlsx
+++ b/data/A245 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrunmoy Jena\Documents\A245Lab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6A1DD3-89AA-4080-A3A7-D39CC7EE2E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CA3D14-1E1A-40ED-99B5-5B54229903D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>scale</t>
   </si>
   <si>
-    <t>fundamental beam</t>
-  </si>
-  <si>
     <t>36.7 (25.04)</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Pnoatt [muW]</t>
+  </si>
+  <si>
+    <t>fundamental beam (muW)</t>
   </si>
 </sst>
 </file>
@@ -4680,16 +4680,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6250,13 +6250,13 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.5546875" customWidth="1"/>
     <col min="6" max="6" width="25.5546875" customWidth="1"/>
@@ -6270,16 +6270,16 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7718,10 +7718,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8039,7 +8039,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2">
         <f>96.4+76.6</f>
@@ -8051,12 +8051,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>66</v>
@@ -8072,7 +8072,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <f>SUM(B5+71.8)</f>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2">
         <f>(B6+108.6)</f>
@@ -8090,12 +8090,12 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <f>B6</f>
@@ -8128,13 +8128,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/A245 Data.xlsx
+++ b/data/A245 Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrunmoy Jena\Documents\A245Lab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CA3D14-1E1A-40ED-99B5-5B54229903D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26E367B-B3AF-44F9-8545-FCBE5AFE49A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Laser power vs Current" sheetId="1" r:id="rId1"/>
@@ -6250,7 +6250,7 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -7098,7 +7098,7 @@
   </sheetPr>
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
